--- a/Resultados/Mercado mundial - Piña tropical.xlsx
+++ b/Resultados/Mercado mundial - Piña tropical.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Indonesia" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Philippines" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Costa Rica" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Brazil" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="China, mainland" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Filipinas" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costa Rica" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -303,12 +303,10 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -572,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -654,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -680,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Philippines'!$B$12:$B$73</f>
+              <f>'Filipinas'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Philippines'!$C$12:$C$73</f>
+              <f>'Filipinas'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Costa Rica'!$B$12:$B$73</f>
+              <f>'Costa Rica'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Costa Rica'!$C$12:$C$73</f>
+              <f>'Costa Rica'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>1055461</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>28.0793</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>29636619.1</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>28.0793</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3542393.29</v>
@@ -2162,10 +2160,10 @@
         <v>1068680</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>27.6735</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>29574167.64</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>27.6735</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3480662.37</v>
@@ -2184,10 +2182,10 @@
         <v>1062372</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>27.188</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>28883731.72</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>27.188</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3514053.67</v>
@@ -2206,10 +2204,10 @@
         <v>1042624</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>26.428</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>27554451.01</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>26.428</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3302872.7</v>
@@ -2228,10 +2226,10 @@
         <v>1069496</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>25.9107</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>27711402.63</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>25.9107</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3622875.57</v>
@@ -2250,10 +2248,10 @@
         <v>1088957</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>25.9836</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>28295065.8</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>25.9836</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3622197.63</v>
@@ -2272,10 +2270,10 @@
         <v>1053838</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>25.9472</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>27344161.34</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>25.9472</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3457798.83</v>
@@ -2294,10 +2292,10 @@
         <v>1034302</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>25.0707</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>25930654.69</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>25.0707</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3170874.97</v>
@@ -2316,10 +2314,10 @@
         <v>1017033</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>25.4028</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>25835531.8</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>25.4028</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3019243.5</v>
@@ -2338,10 +2336,10 @@
         <v>1016901</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>25.0049</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>25427490.17</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>25.0049</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3222331.98</v>
@@ -2360,10 +2358,10 @@
         <v>1002990</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>24.4141</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>24487052.85</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>24.4141</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2984232</v>
@@ -2382,10 +2380,10 @@
         <v>1005453</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>23.8232</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>23953085.77</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>23.8232</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2943010</v>
@@ -2404,10 +2402,10 @@
         <v>970603</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>23.4615</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>22771838.99</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>23.4615</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2900105</v>
@@ -2426,10 +2424,10 @@
         <v>944620</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>22.5552</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21306115.6</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>22.5552</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2713896</v>
@@ -2448,10 +2446,10 @@
         <v>873434</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>23.1972</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20261223.35</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>23.1972</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2557174</v>
@@ -2470,10 +2468,10 @@
         <v>842704</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.3414</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19669897.03</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.3414</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2634673</v>
@@ -2492,10 +2490,10 @@
         <v>849707</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>23.5869</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>20041950.86</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>23.5869</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2523201</v>
@@ -2514,10 +2512,10 @@
         <v>830887</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>23.8633</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>19827739.97</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>23.8633</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2291837</v>
@@ -2536,10 +2534,10 @@
         <v>802003</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.1696</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17780117.83</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.1696</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1972107</v>
@@ -2558,10 +2556,10 @@
         <v>764621</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.8881</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16736093.41</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.8881</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1708440</v>
@@ -2580,10 +2578,10 @@
         <v>757282</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21.2904</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>16122869.65</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21.2904</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1462650</v>
@@ -2602,10 +2600,10 @@
         <v>754591</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>20.9191</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>15785368.26</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>20.9191</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1315982</v>
@@ -2624,10 +2622,10 @@
         <v>752846</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>20.7836</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>15646873.49</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>20.7836</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1152703.42</v>
@@ -2646,10 +2644,10 @@
         <v>717908</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.0411</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>15105560.96</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.0411</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1051571.74</v>
@@ -2668,10 +2666,10 @@
         <v>702415</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21.2107</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>14898707.38</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21.2107</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1034394.71</v>
@@ -2690,10 +2688,10 @@
         <v>647056</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20.4118</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13207563.32</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20.4118</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>860342</v>
@@ -2712,10 +2710,10 @@
         <v>646101</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>20.5838</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>13299226.92</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>20.5838</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>868223.01</v>
@@ -2734,10 +2732,10 @@
         <v>643786</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>19.9872</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>12867450.53</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>19.9872</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>776647</v>
@@ -2756,10 +2754,10 @@
         <v>663071</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>19.7075</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13067449.82</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>19.7075</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>695766</v>
@@ -2778,10 +2776,10 @@
         <v>633942</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>20.4308</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>12951950.51</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>20.4308</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>698638.01</v>
@@ -2800,10 +2798,10 @@
         <v>618236</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>21.2154</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13116106.21</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>21.2154</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>662841</v>
@@ -2822,10 +2820,10 @@
         <v>599413</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20.5316</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12306894.33</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20.5316</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>631672</v>
@@ -2844,10 +2842,10 @@
         <v>612438</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>18.9809</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11624600.93</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>18.9809</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>624021</v>
@@ -2866,10 +2864,10 @@
         <v>607474</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>19.4915</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11840549</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>19.4915</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>595505</v>
@@ -2888,10 +2886,10 @@
         <v>615216</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>18.7978</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11564733</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>18.7978</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>539307</v>
@@ -2910,10 +2908,10 @@
         <v>610161</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>18.2736</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>11149832</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>18.2736</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>538867</v>
@@ -2932,10 +2930,10 @@
         <v>593988</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>17.7674</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10553629</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>17.7674</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>539512</v>
@@ -2954,10 +2952,10 @@
         <v>603878</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>17.0778</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10312925</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>17.0778</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>488820</v>
@@ -2976,10 +2974,10 @@
         <v>584298</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16.6942</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9754383</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>16.6942</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>451678</v>
@@ -2998,10 +2996,10 @@
         <v>579159</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.9376</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9230377</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.9376</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>386263</v>
@@ -3020,10 +3018,10 @@
         <v>601198</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.4749</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8702268</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.4749</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>333279</v>
@@ -3042,10 +3040,10 @@
         <v>597235</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.5967</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8717646</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.5967</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>346512</v>
@@ -3064,10 +3062,10 @@
         <v>557140</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>16.1852</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9017448</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>16.1852</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>361780</v>
@@ -3086,10 +3084,10 @@
         <v>599976</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>18.0522</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10830861</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>18.0522</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>362002</v>
@@ -3108,10 +3106,10 @@
         <v>576327</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>16.4466</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9478609</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>16.4466</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>372697</v>
@@ -3130,10 +3128,10 @@
         <v>527520</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15.9456</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8411633</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15.9456</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>351235</v>
@@ -3152,10 +3150,10 @@
         <v>509128</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15.8736</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8081680</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15.8736</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>258201</v>
@@ -3174,10 +3172,10 @@
         <v>495068</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.2433</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8041544</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.2433</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>226670</v>
@@ -3196,10 +3194,10 @@
         <v>490312</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14.6587</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7187327</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14.6587</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>237173</v>
@@ -3218,10 +3216,10 @@
         <v>533463</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.6344</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6206496</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.6344</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>199974</v>
@@ -3240,10 +3238,10 @@
         <v>509939</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.4058</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5816262</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.4058</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>197940</v>
@@ -3262,10 +3260,10 @@
         <v>461249</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12.3486</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5695759</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12.3486</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>220710</v>
@@ -3284,10 +3282,10 @@
         <v>479798</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.8903</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5704953</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.8903</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>187201</v>
@@ -3306,10 +3304,10 @@
         <v>453892</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.0008</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5447077</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.0008</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>160349</v>
@@ -3328,10 +3326,10 @@
         <v>441577</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.8592</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5236758</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.8592</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>133517</v>
@@ -3350,10 +3348,10 @@
         <v>424358</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.9124</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5055130</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.9124</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>106487</v>
@@ -3372,10 +3370,10 @@
         <v>420863</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.938</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5024270</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.938</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>107480</v>
@@ -3393,10 +3391,10 @@
         <v>411221</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11.5779</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4761061</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11.5779</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>121854</v>
@@ -3414,10 +3412,10 @@
         <v>398308</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.2396</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4476838</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.2396</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>116040</v>
@@ -3435,10 +3433,10 @@
         <v>371497</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>11.1108</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4127624</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>11.1108</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>107244</v>
@@ -3456,10 +3454,10 @@
         <v>368612</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10.8649</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4004916</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10.8649</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>96239</v>
@@ -3477,10 +3475,10 @@
         <v>356240</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10.8135</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3852213</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10.8135</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>95556</v>
@@ -3498,10 +3496,10 @@
         <v>369318</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.3737</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3831202</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.3737</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>102286</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3898,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3926,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3940,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3982,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3996,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4118,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4231,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4245,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4259,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4273,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4343,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4357,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>27282.29</v>
+        <v>301120.1299999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.007552942471580107</v>
+        <v>0.08336334739219919</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>273837.8399999999</v>
+        <v>3612140.58</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.07581040492061908</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>3612140.58</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4406,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
       <c r="D26" s="35" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4643,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4657,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4671,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4685,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4699,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4713,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4727,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4741,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4755,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4783,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>26.48</v>
+        <v>781847.5600000005</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>7.475172244355736e-06</v>
+        <v>0.2207116759754252</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>781821.0800000005</v>
+        <v>3542393.29</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2207042008031809</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>3542393.29</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4829,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="38" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>23550</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>134.0366</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3156576.45</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>134.0366</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0</v>
@@ -5052,10 +5033,10 @@
         <v>24288</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>131.9074</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3203775.15</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>131.9074</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5072,10 +5053,10 @@
         <v>22241</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>129.7782</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2886416.84</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>129.7782</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.01</v>
@@ -5094,10 +5075,10 @@
         <v>18851</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>129.8186</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2447243.46</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>129.8186</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>31.22</v>
@@ -5116,10 +5097,10 @@
         <v>17284</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>127.0834</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2196456</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>127.0834</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -5138,10 +5119,10 @@
         <v>14741</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>122.4845</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1805499</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>122.4845</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0</v>
@@ -5160,10 +5141,10 @@
         <v>15500</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>115.8701</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1795986</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>115.8701</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5180,10 +5161,10 @@
         <v>12000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>116.3461</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1396153</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>116.3461</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5200,10 +5181,10 @@
         <v>14900</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>116.0805</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1729599</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>116.0805</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5220,10 +5201,10 @@
         <v>16000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>114.7182</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1835491</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>114.7182</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0</v>
@@ -5242,10 +5223,10 @@
         <v>16203</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>116.2012</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1882806</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>116.2012</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5264,10 +5245,10 @@
         <v>16996</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>104.8423</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1781899</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>104.8423</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>10</v>
@@ -5286,10 +5267,10 @@
         <v>12335</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>124.8987</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1540626</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>124.8987</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>68</v>
@@ -5308,10 +5289,10 @@
         <v>12141</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>115.8426</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1406445</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>115.8426</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>84</v>
@@ -5330,10 +5311,10 @@
         <v>12611</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>123.5585</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1558196</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>123.5585</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>46</v>
@@ -5352,10 +5333,10 @@
         <v>14271</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>100.4227</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1433133</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>100.4227</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>193</v>
@@ -5374,10 +5355,10 @@
         <v>18957</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>73.61750000000001</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1395566</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>73.61750000000001</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>189</v>
@@ -5396,10 +5377,10 @@
         <v>21368</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>66.81869999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1427781</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>66.81869999999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>8</v>
@@ -5418,10 +5399,10 @@
         <v>9962</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>92.86110000000001</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>925082</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>92.86110000000001</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2</v>
@@ -5440,10 +5421,10 @@
         <v>11432</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>62.0992</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>709918</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>62.0992</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5462,10 +5443,10 @@
         <v>7130</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>94.96339999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>677089</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>94.96339999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1</v>
@@ -5484,10 +5465,10 @@
         <v>9034</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>61.4997</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>555588</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>61.4997</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1</v>
@@ -5506,10 +5487,10 @@
         <v>7960</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>62.1819</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>494968</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>62.1819</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>4</v>
@@ -5528,10 +5509,10 @@
         <v>6994</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>56.2338</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>393299</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>56.2338</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>16.21</v>
@@ -5550,10 +5531,10 @@
         <v>7173</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>44.1209</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>316479</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>44.1209</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5572,10 +5553,10 @@
         <v>5243</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>62.3605</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>326956</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>62.3605</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5594,10 +5575,10 @@
         <v>5608</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>68.7908</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>385779</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>68.7908</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5616,10 +5597,10 @@
         <v>29586</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.9374</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>501111</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.9374</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2</v>
@@ -5638,10 +5619,10 @@
         <v>50718</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13.8669</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>703300</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13.8669</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8</v>
@@ -5660,10 +5641,10 @@
         <v>20131</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17.1635</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>345519</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17.1635</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2</v>
@@ -5682,10 +5663,10 @@
         <v>19985</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>22.9725</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>459105</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>22.9725</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5704,10 +5685,10 @@
         <v>21237</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>17.7181</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>376279</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>17.7181</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5726,10 +5707,10 @@
         <v>41530</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.0306</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>375039</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.0306</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5748,10 +5729,10 @@
         <v>49028</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7.961600000000001</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>390340</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7.961600000000001</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5770,10 +5751,10 @@
         <v>32765</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.574199999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>215405</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.574199999999999</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5792,10 +5773,10 @@
         <v>49374</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7.2443</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>357681</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7.2443</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5814,10 +5795,10 @@
         <v>44348</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>7.843100000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>347828</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>7.843100000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5836,10 +5817,10 @@
         <v>59000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6.5424</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>386000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6.5424</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5858,10 +5839,10 @@
         <v>42818</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7.211</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>308762</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7.211</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5880,10 +5861,10 @@
         <v>65430</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.2532</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>474576</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.2532</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5902,10 +5883,10 @@
         <v>49025</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6.5875</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>322954</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6.5875</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>2</v>
@@ -5924,10 +5905,10 @@
         <v>43668</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7.0074</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>306000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7.0074</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1</v>
@@ -5946,10 +5927,10 @@
         <v>23000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.913</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>182000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7.913</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3</v>
@@ -5968,10 +5949,10 @@
         <v>20816</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.673299999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>180543</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.673299999999999</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1</v>
@@ -5990,10 +5971,10 @@
         <v>40355</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>6.4109</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>258712</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>6.4109</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1</v>
@@ -6012,10 +5993,10 @@
         <v>26591</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.6786</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>151000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5.6786</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1</v>
@@ -6034,10 +6015,10 @@
         <v>25178</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>6.126</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>154240</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>6.126</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>3</v>
@@ -6056,10 +6037,10 @@
         <v>22400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.0299</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>112670</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5.0299</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1</v>
@@ -6078,10 +6059,10 @@
         <v>26000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.5962</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>119500</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.5962</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6100,10 +6081,10 @@
         <v>24100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.0456</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>121600</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5.0456</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6122,10 +6103,10 @@
         <v>26000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.8462</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.8462</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6144,10 +6125,10 @@
         <v>23000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4.5652</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>105000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4.5652</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6166,10 +6147,10 @@
         <v>23000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4.2174</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>97000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4.2174</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6188,10 +6169,10 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.8462</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>76000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.8462</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6210,10 +6191,10 @@
         <v>21000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.714300000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.714300000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6232,10 +6213,10 @@
         <v>23000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6.5217</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6.5217</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6254,10 +6235,10 @@
         <v>20000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6275,10 +6256,10 @@
         <v>20000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6296,10 +6277,10 @@
         <v>18000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6317,10 +6298,10 @@
         <v>14000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>70000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6338,10 +6319,10 @@
         <v>14000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>70000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6359,10 +6340,10 @@
         <v>10000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6380,10 +6361,10 @@
         <v>10000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6719,7 +6700,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6798,10 +6779,10 @@
         <v>69149</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>42.5786</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2944259.54</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>42.5786</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.13</v>
@@ -6820,10 +6801,10 @@
         <v>67722</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>43.0351</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2914424.68</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>43.0351</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>9.02</v>
@@ -6842,10 +6823,10 @@
         <v>67117</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>42.615</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2860202.36</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>42.615</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>6.85</v>
@@ -6864,10 +6845,10 @@
         <v>66858</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>40.4222</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2702553.81</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>40.4222</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0</v>
@@ -6886,10 +6867,10 @@
         <v>66048</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>41.6042</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2747856.5</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>41.6042</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -6908,10 +6889,10 @@
         <v>66190</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>41.2595</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2730984.64</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>41.2595</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6928,10 +6909,10 @@
         <v>65998</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>40.4819</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2671710.8</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>40.4819</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4.06</v>
@@ -6950,10 +6931,10 @@
         <v>65224</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>40.0536</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2612474.02</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>40.0536</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>67.77</v>
@@ -6972,10 +6953,10 @@
         <v>62812</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>41.1179</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2582699</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>41.1179</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6992,10 +6973,10 @@
         <v>61643</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>40.6713</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2507098</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>40.6713</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.14</v>
@@ -7014,10 +6995,10 @@
         <v>60759</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>40.4636</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2458528</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>40.4636</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -7036,10 +7017,10 @@
         <v>58450</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41.0222</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2397745</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41.0222</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7058,10 +7039,10 @@
         <v>58457</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>38.43519999999999</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2246806</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>38.43519999999999</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7080,10 +7061,10 @@
         <v>58547</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>37.0511</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2169233</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>37.0511</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7102,10 +7083,10 @@
         <v>58823</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>37.3748</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2198497</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>37.3748</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>7</v>
@@ -7124,10 +7105,10 @@
         <v>58251</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>37.9279</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2209336</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>37.9279</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7146,10 +7127,10 @@
         <v>53978</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>37.3571</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2016462</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>37.3571</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7168,10 +7149,10 @@
         <v>49813</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>36.8158</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1833907.84</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>36.8158</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>126</v>
@@ -7190,10 +7171,10 @@
         <v>49215</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>36.3348</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1788218</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>36.3348</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4</v>
@@ -7212,10 +7193,10 @@
         <v>48238</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>36.4819</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1759813</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>36.4819</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>3</v>
@@ -7234,10 +7215,10 @@
         <v>47663</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>35.6241</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1697952</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>35.6241</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7256,10 +7237,10 @@
         <v>44961</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>36.4574</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1639161</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>36.4574</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7278,10 +7259,10 @@
         <v>44340</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>36.4886</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1617906</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>36.4886</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -7300,10 +7281,10 @@
         <v>42968</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>36.2959</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1559563.08</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>36.2959</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.67</v>
@@ -7322,10 +7303,10 @@
         <v>43265</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>36.19269999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1565878</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>36.19269999999999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1</v>
@@ -7344,10 +7325,10 @@
         <v>42936</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>36.6859</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1575145</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>36.6859</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1</v>
@@ -7366,10 +7347,10 @@
         <v>42924</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>37.6506</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1616113</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>37.6506</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1</v>
@@ -7388,10 +7369,10 @@
         <v>42215</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>38.7479</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1635744</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>38.7479</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7408,10 +7389,10 @@
         <v>41580</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>39.5928</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1646268</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>39.5928</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7428,10 +7409,10 @@
         <v>40483</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>39.8273</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1612327</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>39.8273</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7448,10 +7429,10 @@
         <v>39274</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>40.0217</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1571811</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>40.0217</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7468,10 +7449,10 @@
         <v>38424</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>39.4723</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1516685</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>39.4723</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7488,10 +7469,10 @@
         <v>38907</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>34.585</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1345599</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>34.585</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7508,10 +7489,10 @@
         <v>40795</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>34.849</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1421663</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>34.849</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7528,10 +7509,10 @@
         <v>60973</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>19.3323</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1178750</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>19.3323</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7548,10 +7529,10 @@
         <v>60542</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>19.5098</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1181165</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>19.5098</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7568,10 +7549,10 @@
         <v>63141</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20.6425</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1303389</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20.6425</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7588,10 +7569,10 @@
         <v>60886</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>20.9108</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1273176</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>20.9108</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7608,10 +7589,10 @@
         <v>58020</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>17.7517</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1029952</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>17.7517</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7628,10 +7609,10 @@
         <v>59006</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>17.5505</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1035584</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>17.5505</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7648,10 +7629,10 @@
         <v>61254</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15.7861</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>966962</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15.7861</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7668,10 +7649,10 @@
         <v>59181</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>17.0626</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1009779</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>17.0626</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7688,10 +7669,10 @@
         <v>60568</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>16.0561</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>972486</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>16.0561</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7708,10 +7689,10 @@
         <v>62670</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>16.0332</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1004800</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>16.0332</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7728,10 +7709,10 @@
         <v>54550</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.0831</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>604585</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.0831</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7748,10 +7729,10 @@
         <v>45300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10.2631</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>464917</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10.2631</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7768,10 +7749,10 @@
         <v>36130</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>11.6753</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>421827</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>11.6753</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7788,10 +7769,10 @@
         <v>35200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.9282</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>419872</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.9282</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7808,10 +7789,10 @@
         <v>30510</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13.9092</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>424370</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13.9092</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7828,10 +7809,10 @@
         <v>28400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.912</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>338300</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.912</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7848,10 +7829,10 @@
         <v>27600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>10.6304</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>293400</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>10.6304</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7868,10 +7849,10 @@
         <v>29600</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.5304</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>282100</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.5304</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7888,10 +7869,10 @@
         <v>28000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.367899999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>234300</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.367899999999999</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7908,10 +7889,10 @@
         <v>28850</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.091200000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>233431</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.091200000000001</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7928,10 +7909,10 @@
         <v>29860</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7.982699999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>238362</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7.982699999999999</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7948,10 +7929,10 @@
         <v>28670</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.8828</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>225999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.8828</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7968,10 +7949,10 @@
         <v>23260</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.942399999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>208000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.942399999999999</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7987,10 +7968,10 @@
         <v>25430</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7.3928</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>188000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7.3928</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -8006,10 +7987,10 @@
         <v>25000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>176000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7.04</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -8025,10 +8006,10 @@
         <v>22000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.0455</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>155000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7.0455</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -8044,10 +8025,10 @@
         <v>21600</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.990699999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>151000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6.990699999999999</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -8063,10 +8044,10 @@
         <v>20000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -8082,10 +8063,10 @@
         <v>16600</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.988</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8419,7 +8400,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8498,10 +8479,10 @@
         <v>40000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>73.4452</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2937807</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>73.4452</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.7</v>
@@ -8520,10 +8501,10 @@
         <v>40000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>65.4658</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2618630</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>65.4658</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.36</v>
@@ -8542,10 +8523,10 @@
         <v>40000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>73.4584</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2938334</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>73.4584</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>23.74</v>
@@ -8564,10 +8545,10 @@
         <v>40000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>66.20339999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2648138</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>66.20339999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>8.84</v>
@@ -8586,10 +8567,10 @@
         <v>40000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>70.06780000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2802712</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>70.06780000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>7.02</v>
@@ -8608,10 +8589,10 @@
         <v>45000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>75.959</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3418155</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>75.959</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>310.08</v>
@@ -8630,10 +8611,10 @@
         <v>45000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>73.71169999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3317028</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>73.71169999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>14859.65</v>
@@ -8652,10 +8633,10 @@
         <v>43000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>67.98039999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2923158</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>67.98039999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>18127.85</v>
@@ -8674,10 +8655,10 @@
         <v>40000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>69.2894</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2771577</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>69.2894</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>16118.85</v>
@@ -8696,10 +8677,10 @@
         <v>40000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>71.9496</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2877982</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>71.9496</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>16000</v>
@@ -8718,10 +8699,10 @@
         <v>45000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>60.4391</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2719760</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>60.4391</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>55</v>
@@ -8740,10 +8721,10 @@
         <v>45000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>58.7531</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2643889</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>58.7531</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>683</v>
@@ -8762,10 +8743,10 @@
         <v>45000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>55.6051</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2502228</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>55.6051</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>56938</v>
@@ -8784,10 +8765,10 @@
         <v>45000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>51.3941</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2312732.8</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>51.3941</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>46</v>
@@ -8806,10 +8787,10 @@
         <v>40000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>48.65130000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1946054</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>48.65130000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>53</v>
@@ -8828,10 +8809,10 @@
         <v>33488</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>49.7949</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1667530</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>49.7949</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>22</v>
@@ -8850,10 +8831,10 @@
         <v>28160</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>54.941</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1547139</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>54.941</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>37</v>
@@ -8872,10 +8853,10 @@
         <v>23070</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>85.83210000000001</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1980146</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>85.83210000000001</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>242</v>
@@ -8894,10 +8875,10 @@
         <v>26821</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1605237</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>59.85</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8916,10 +8897,10 @@
         <v>18000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1077300</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>59.85</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>15</v>
@@ -8938,10 +8919,10 @@
         <v>16445</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>984233</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>59.85</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>95</v>
@@ -8960,10 +8941,10 @@
         <v>15500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>64</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>992000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>64</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>98</v>
@@ -8982,10 +8963,10 @@
         <v>13035</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>72.9114</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>950400</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>72.9114</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>10</v>
@@ -9004,10 +8985,10 @@
         <v>12500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>903125</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>72.25</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>39.22</v>
@@ -9026,10 +9007,10 @@
         <v>9900</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>86.6635</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>857969</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>86.6635</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>4803.43</v>
@@ -9048,10 +9029,10 @@
         <v>9300</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>651000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1679</v>
@@ -9070,10 +9051,10 @@
         <v>9170</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>70.002</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>641918</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>70.002</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>942</v>
@@ -9092,10 +9073,10 @@
         <v>8195</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>573650</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9114,10 +9095,10 @@
         <v>6064</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>424480</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9136,10 +9117,10 @@
         <v>7000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>70.0822</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>490575.73</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>70.0822</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9158,10 +9139,10 @@
         <v>7000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>490000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9180,10 +9161,10 @@
         <v>7000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>490000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9202,10 +9183,10 @@
         <v>6000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>420000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9224,10 +9205,10 @@
         <v>6050</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>423500</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9246,10 +9227,10 @@
         <v>6500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>455000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>70</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>58</v>
@@ -9268,10 +9249,10 @@
         <v>7040</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>17.0455</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>17.0455</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9290,10 +9271,10 @@
         <v>6000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>89100</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14.85</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>85</v>
@@ -9312,10 +9293,10 @@
         <v>5500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12.9649</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>71307</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12.9649</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>246</v>
@@ -9334,10 +9315,10 @@
         <v>2000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>13.6285</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>27257</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>13.6285</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>336</v>
@@ -9356,10 +9337,10 @@
         <v>1000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>24.204</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>24204</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>24.204</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>272</v>
@@ -9378,10 +9359,10 @@
         <v>625</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>26.0064</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>16254</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>26.0064</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>120</v>
@@ -9400,10 +9381,10 @@
         <v>530</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18.1132</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>9600</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18.1132</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9422,10 +9403,10 @@
         <v>550</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9444,10 +9425,10 @@
         <v>500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>19</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9500</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>19</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9466,10 +9447,10 @@
         <v>490</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>18.3673</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>18.3673</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9488,10 +9469,10 @@
         <v>470</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18.7234</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8800</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>18.7234</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9510,10 +9491,10 @@
         <v>470</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>18.7234</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8800</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>18.7234</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9532,10 +9513,10 @@
         <v>450</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>19.1111</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8600</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>19.1111</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9554,10 +9535,10 @@
         <v>420</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8400</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9576,10 +9557,10 @@
         <v>400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8200</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>20.5</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9598,10 +9579,10 @@
         <v>400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>19.9125</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7965</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>19.9125</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9620,10 +9601,10 @@
         <v>350</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>16.5714</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5800</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>16.5714</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9642,10 +9623,10 @@
         <v>350</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16.1429</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5650</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16.1429</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9664,10 +9645,10 @@
         <v>300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5400</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>18</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9686,10 +9667,10 @@
         <v>300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5100</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>17</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9708,10 +9689,10 @@
         <v>300</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>16.3333</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4900</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>16.3333</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9730,10 +9711,10 @@
         <v>300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4600</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>15.3333</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9751,10 +9732,10 @@
         <v>200</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4400</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>22</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9772,10 +9753,10 @@
         <v>200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>21</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4200</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>21</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9793,10 +9774,10 @@
         <v>200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3900</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>19.5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9814,10 +9795,10 @@
         <v>200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3700</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>18.5</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9835,10 +9816,10 @@
         <v>200</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3600</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>18</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9856,10 +9837,10 @@
         <v>200</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3500</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10195,7 +10176,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10274,10 +10255,10 @@
         <v>63943</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>37.3363</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2387393</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>37.3363</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>263.31</v>
@@ -10296,10 +10277,10 @@
         <v>64293</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>36.657</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2356788</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>36.657</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>22.2</v>
@@ -10318,10 +10299,10 @@
         <v>63610</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>36.527</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2323485</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>36.527</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>10</v>
@@ -10340,10 +10321,10 @@
         <v>64792</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>37.9083</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2456154</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>37.9083</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>7.5</v>
@@ -10362,10 +10343,10 @@
         <v>66900</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>36.14830000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2418321</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>36.14830000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>17.21</v>
@@ -10384,10 +10365,10 @@
         <v>71659</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>37.0118</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2652231</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>37.0118</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>101.39</v>
@@ -10406,10 +10387,10 @@
         <v>62078</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>37.2054</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2309634</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>37.2054</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>75.65000000000001</v>
@@ -10428,10 +10409,10 @@
         <v>66905</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2559117</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>38.25</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>174.5</v>
@@ -10450,10 +10431,10 @@
         <v>67922</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>39.069</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2653646</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>39.069</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24.79</v>
@@ -10472,10 +10453,10 @@
         <v>66599</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>39.734</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2646243</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>39.734</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>15.05</v>
@@ -10494,10 +10475,10 @@
         <v>63204</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>39.2986</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2483831</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>39.2986</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17</v>
@@ -10516,10 +10497,10 @@
         <v>65502</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>38.8782</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2546601</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>38.8782</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>22</v>
@@ -10538,10 +10519,10 @@
         <v>62481</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>37.8588</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2365455</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>37.8588</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>9</v>
@@ -10560,10 +10541,10 @@
         <v>58507</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>37.6978</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2205586</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>37.6978</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>37</v>
@@ -10582,10 +10563,10 @@
         <v>60176</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>36.6673</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2206492</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>36.6673</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>14</v>
@@ -10604,10 +10585,10 @@
         <v>65982</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>38.928</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2568547</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>38.928</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>8</v>
@@ -10626,10 +10607,10 @@
         <v>71823</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>37.26280000000001</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2676323</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>37.26280000000001</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1</v>
@@ -10648,10 +10629,10 @@
         <v>66845</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>38.307</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2560632</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>38.307</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5</v>
@@ -10670,10 +10651,10 @@
         <v>61787</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>37.1028</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2292470</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>37.1028</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4</v>
@@ -10692,10 +10673,10 @@
         <v>59163</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>37.455</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2215949</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>37.455</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2</v>
@@ -10714,10 +10695,10 @@
         <v>57986</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>37.25069999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2160020</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>37.25069999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2</v>
@@ -10736,10 +10717,10 @@
         <v>61127</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>35.17019999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2149851</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>35.17019999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10758,10 +10739,10 @@
         <v>62597</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>34.2672</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2145027</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>34.2672</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10780,10 +10761,10 @@
         <v>60406</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>33.1703</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2003688</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>33.1703</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>54.42</v>
@@ -10802,10 +10783,10 @@
         <v>56917</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>32.8678</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1870736</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>32.8678</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7</v>
@@ -10824,10 +10805,10 @@
         <v>54998</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>30.3616</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1669829</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>30.3616</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>9</v>
@@ -10846,10 +10827,10 @@
         <v>53567</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>30.0539</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1609895</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>30.0539</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>51</v>
@@ -10868,10 +10849,10 @@
         <v>45843</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>24.9979</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1145981</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>24.9979</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>18</v>
@@ -10890,10 +10871,10 @@
         <v>44384</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>32.1368</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1426361</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>32.1368</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>16</v>
@@ -10912,10 +10893,10 @@
         <v>45218</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>32.826</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1484327</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>32.826</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10932,10 +10913,10 @@
         <v>39719</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>31.5182</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1251873</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>31.5182</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10952,10 +10933,10 @@
         <v>37402</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>33.1263</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1238991</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>33.1263</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10972,10 +10953,10 @@
         <v>35904</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>33.1525</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1190307</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>33.1525</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10992,10 +10973,10 @@
         <v>33167</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>33.283</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1103897</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>33.283</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -11012,10 +10993,10 @@
         <v>37152</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>33.4259</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1241840</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>33.4259</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -11032,10 +11013,10 @@
         <v>45390</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>33.3184</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1512320</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>33.3184</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -11052,10 +11033,10 @@
         <v>44376</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>32.0953</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1424260</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>32.0953</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -11072,10 +11053,10 @@
         <v>38611</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>32.1364</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1240820</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>32.1364</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -11092,10 +11073,10 @@
         <v>36618</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>31.3125</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1146600</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>31.3125</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -11112,10 +11093,10 @@
         <v>32232</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>29.7948</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>960347</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>29.7948</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -11132,10 +11113,10 @@
         <v>30638</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>27.1376</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>831443</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>27.1376</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -11152,10 +11133,10 @@
         <v>26513</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>25.207</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>668312</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>25.207</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11172,10 +11153,10 @@
         <v>27014</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>22.9289</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>619400</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>22.9289</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11192,10 +11173,10 @@
         <v>25185</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>22.4669</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>565829</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>22.4669</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11212,10 +11193,10 @@
         <v>26645</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>21.779</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>580301</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>21.779</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11232,10 +11213,10 @@
         <v>26696</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>21.5212</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>574530</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>21.5212</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11252,10 +11233,10 @@
         <v>26220</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20.9154</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>548403</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20.9154</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11272,10 +11253,10 @@
         <v>26180</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>19.8092</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>518606</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>19.8092</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11292,10 +11273,10 @@
         <v>28000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.8241</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>527076</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18.8241</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11312,10 +11293,10 @@
         <v>29498</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16.7396</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>493784</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16.7396</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11332,10 +11313,10 @@
         <v>33921</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.3998</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>488457</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.3998</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11352,10 +11333,10 @@
         <v>34474</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.5512</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>536111</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.5512</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11372,10 +11353,10 @@
         <v>33823</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>14.7488</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>498849</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>14.7488</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11392,10 +11373,10 @@
         <v>32189</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13.1692</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>423903</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13.1692</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11412,10 +11393,10 @@
         <v>30636</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12.7138</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>389499</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12.7138</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11432,10 +11413,10 @@
         <v>27431</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12.3162</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>337847</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12.3162</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11452,10 +11433,10 @@
         <v>30525</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.0561</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>337487</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.0561</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11471,10 +11452,10 @@
         <v>28183</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.4739</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>295185</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.4739</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11490,10 +11471,10 @@
         <v>28467</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10.2657</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>292235</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10.2657</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11509,10 +11490,10 @@
         <v>29471</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.864700000000001</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>290723</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.864700000000001</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11528,10 +11509,10 @@
         <v>28472</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.6265</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>274086</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.6265</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11547,10 +11528,10 @@
         <v>26867</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10.2711</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>275954</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10.2711</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11566,10 +11547,10 @@
         <v>25345</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.8143</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>274089</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.8143</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11903,7 +11884,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11982,10 +11963,10 @@
         <v>71008</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>29.4841</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2093595.55</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>29.4841</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>213735.02</v>
@@ -12004,10 +11985,10 @@
         <v>69000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>29.0362</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2003500</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>29.0362</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>208183.63</v>
@@ -12026,10 +12007,10 @@
         <v>67543</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>27.9215</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1885900</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>27.9215</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>197882.95</v>
@@ -12048,10 +12029,10 @@
         <v>65800</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>28.0699</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1847000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>28.0699</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>208473.1</v>
@@ -12070,10 +12051,10 @@
         <v>87458</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>24.6826</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2158691</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>24.6826</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>249333.15</v>
@@ -12092,10 +12073,10 @@
         <v>84026</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>24.4815</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2057084</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>24.4815</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>185995.51</v>
@@ -12114,10 +12095,10 @@
         <v>64344</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.2313</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1494800</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.2313</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>146003.12</v>
@@ -12136,10 +12117,10 @@
         <v>62583</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>22.3623</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1399500</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>22.3623</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>101931.83</v>
@@ -12158,10 +12139,10 @@
         <v>60500</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>22.124</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1338500</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>22.124</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>84400.55</v>
@@ -12180,10 +12161,10 @@
         <v>72617</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>17.8663</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1297400</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>17.8663</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>70215.86</v>
@@ -12202,10 +12183,10 @@
         <v>60500</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.0198</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1271700</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.0198</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>39458</v>
@@ -12224,10 +12205,10 @@
         <v>65000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>18.3323</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1191600</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>18.3323</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>28749</v>
@@ -12246,10 +12227,10 @@
         <v>62000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1112900</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>17.95</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>37106</v>
@@ -12268,10 +12249,10 @@
         <v>55000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>18.5164</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1018400</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>18.5164</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>19750</v>
@@ -12290,10 +12271,10 @@
         <v>53900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.5417</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>999400</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.5417</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>12117</v>
@@ -12312,10 +12293,10 @@
         <v>53400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>16.9888</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>907200</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>16.9888</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10830</v>
@@ -12334,10 +12315,10 @@
         <v>55000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>16.2127</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>891700</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>16.2127</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>8891</v>
@@ -12356,10 +12337,10 @@
         <v>53200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>16.7425</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>890700</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>16.7425</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4012</v>
@@ -12378,10 +12359,10 @@
         <v>51500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>16.4835</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>848900</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>16.4835</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>663</v>
@@ -12400,10 +12381,10 @@
         <v>51000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>15.849</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>808300</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>15.849</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>142</v>
@@ -12422,10 +12403,10 @@
         <v>52600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>15.6255</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>821900</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>15.6255</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>248</v>
@@ -12444,10 +12425,10 @@
         <v>56200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14.7206</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>827300</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14.7206</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>671</v>
@@ -12466,10 +12447,10 @@
         <v>60660</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.3258</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>869000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.3258</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1370</v>
@@ -12488,10 +12469,10 @@
         <v>45000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19.0333</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>856500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19.0333</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1325.58</v>
@@ -12510,10 +12491,10 @@
         <v>40000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>22.065</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>882600</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>22.065</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3497</v>
@@ -12532,10 +12513,10 @@
         <v>30000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21.4975</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>644925</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21.4975</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>22492</v>
@@ -12554,10 +12535,10 @@
         <v>30000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.5763</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>527288</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.5763</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>17893</v>
@@ -12576,10 +12557,10 @@
         <v>28000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>20.7143</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>20.7143</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2619</v>
@@ -12598,10 +12579,10 @@
         <v>23000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>23.4525</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>539408</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>23.4525</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1408</v>
@@ -12620,10 +12601,10 @@
         <v>20500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>23.6595</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>485019</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>23.6595</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>501</v>
@@ -12642,10 +12623,10 @@
         <v>18000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>25.2638</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>454748</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>25.2638</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>131</v>
@@ -12664,10 +12645,10 @@
         <v>20000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>22.0841</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>441682</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>22.0841</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>30</v>
@@ -12686,10 +12667,10 @@
         <v>18000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>23.8457</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>429222</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>23.8457</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>6</v>
@@ -12708,10 +12689,10 @@
         <v>20000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>23.1275</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>462549</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>23.1275</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12730,10 +12711,10 @@
         <v>22000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>23.2252</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>510954</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>23.2252</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3</v>
@@ -12752,10 +12733,10 @@
         <v>20000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>24.2575</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>485151</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>24.2575</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1</v>
@@ -12774,10 +12755,10 @@
         <v>18000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>22.8889</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>412000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>22.8889</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4</v>
@@ -12796,10 +12777,10 @@
         <v>15000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>23.3333</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>23.3333</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>6</v>
@@ -12818,10 +12799,10 @@
         <v>13000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14.089</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>183157</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14.089</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12840,10 +12821,10 @@
         <v>11000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>132000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12862,10 +12843,10 @@
         <v>11000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.3636</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.3636</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12884,10 +12865,10 @@
         <v>11000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>12.1818</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>134000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>12.1818</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12906,10 +12887,10 @@
         <v>8700</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10.4598</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>91000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10.4598</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12928,10 +12909,10 @@
         <v>7500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10.0267</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>75200</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10.0267</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12950,10 +12931,10 @@
         <v>7700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10.0649</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>77500</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10.0649</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12972,10 +12953,10 @@
         <v>8000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12994,10 +12975,10 @@
         <v>7500</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>75000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -13016,10 +12997,10 @@
         <v>8400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.2857</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>78000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.2857</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13038,10 +13019,10 @@
         <v>7100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.2958</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>66000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.2958</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13060,10 +13041,10 @@
         <v>6900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.275399999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>64000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.275399999999999</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13082,10 +13063,10 @@
         <v>6600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.3939</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>62000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.3939</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13104,10 +13085,10 @@
         <v>6500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.230799999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.230799999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13126,10 +13107,10 @@
         <v>6400</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.2188</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>59000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.2188</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13148,10 +13129,10 @@
         <v>6200</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.1935</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>57000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.1935</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13170,10 +13151,10 @@
         <v>5900</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.321999999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.321999999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13192,10 +13173,10 @@
         <v>5500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.6364</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>53000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.6364</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13214,10 +13195,10 @@
         <v>5400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>9.6296</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>52000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>9.6296</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13235,10 +13216,10 @@
         <v>5200</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9.615399999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9.615399999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13256,10 +13237,10 @@
         <v>5200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.615399999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.615399999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13277,10 +13258,10 @@
         <v>5200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.615399999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.615399999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13298,10 +13279,10 @@
         <v>5000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>48000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.6</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13319,10 +13300,10 @@
         <v>4700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.5745</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>45000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.5745</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13340,10 +13321,10 @@
         <v>4200</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.5238</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.5238</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Piña tropical.xlsx
+++ b/Resultados/Mercado mundial - Piña tropical.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Filipinas" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costa Rica" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Indonesia" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Philippines" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Costa Rica" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Brazil" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="China, mainland" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -303,10 +303,12 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +516,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +680,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +762,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +844,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Filipinas'!$B$12:$B$74</f>
+              <f>'Philippines'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Filipinas'!$C$12:$C$74</f>
+              <f>'Philippines'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +926,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1008,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1090,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>1055461</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>29636619.1</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>28.0793</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>29636619.1</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3542393.29</v>
@@ -2160,10 +2162,10 @@
         <v>1068680</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>29574167.64</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>27.6735</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>29574167.64</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3480662.37</v>
@@ -2182,10 +2184,10 @@
         <v>1062372</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>28883731.72</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>27.188</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>28883731.72</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3514053.67</v>
@@ -2204,10 +2206,10 @@
         <v>1042624</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>27554451.01</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>26.428</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>27554451.01</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3302872.7</v>
@@ -2226,10 +2228,10 @@
         <v>1069496</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>27711402.63</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>25.9107</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>27711402.63</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3622875.57</v>
@@ -2248,10 +2250,10 @@
         <v>1088957</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>28295065.8</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>25.9836</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>28295065.8</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3622197.63</v>
@@ -2270,10 +2272,10 @@
         <v>1053838</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>27344161.34</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>25.9472</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>27344161.34</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3457798.83</v>
@@ -2292,10 +2294,10 @@
         <v>1034302</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>25930654.69</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>25.0707</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>25930654.69</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3170874.97</v>
@@ -2314,10 +2316,10 @@
         <v>1017033</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>25835531.8</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>25.4028</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>25835531.8</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3019243.5</v>
@@ -2336,10 +2338,10 @@
         <v>1016901</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>25427490.17</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>25.0049</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>25427490.17</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3222331.98</v>
@@ -2358,10 +2360,10 @@
         <v>1002990</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>24487052.85</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>24.4141</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>24487052.85</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2984232</v>
@@ -2380,10 +2382,10 @@
         <v>1005453</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>23953085.77</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>23.8232</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>23953085.77</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2943010</v>
@@ -2402,10 +2404,10 @@
         <v>970603</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>22771838.99</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>23.4615</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>22771838.99</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2900105</v>
@@ -2424,10 +2426,10 @@
         <v>944620</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21306115.6</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>22.5552</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21306115.6</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2713896</v>
@@ -2446,10 +2448,10 @@
         <v>873434</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20261223.35</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>23.1972</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20261223.35</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2557174</v>
@@ -2468,10 +2470,10 @@
         <v>842704</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19669897.03</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.3414</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19669897.03</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2634673</v>
@@ -2490,10 +2492,10 @@
         <v>849707</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>20041950.86</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>23.5869</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>20041950.86</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2523201</v>
@@ -2512,10 +2514,10 @@
         <v>830887</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>19827739.97</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>23.8633</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>19827739.97</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2291837</v>
@@ -2534,10 +2536,10 @@
         <v>802003</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17780117.83</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.1696</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17780117.83</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1972107</v>
@@ -2556,10 +2558,10 @@
         <v>764621</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16736093.41</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.8881</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16736093.41</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1708440</v>
@@ -2578,10 +2580,10 @@
         <v>757282</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>16122869.65</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21.2904</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>16122869.65</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1462650</v>
@@ -2600,10 +2602,10 @@
         <v>754591</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>15785368.26</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>20.9191</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>15785368.26</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1315982</v>
@@ -2622,10 +2624,10 @@
         <v>752846</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>15646873.49</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>20.7836</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>15646873.49</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1152703.42</v>
@@ -2644,10 +2646,10 @@
         <v>717908</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>15105560.96</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.0411</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>15105560.96</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1051571.74</v>
@@ -2666,10 +2668,10 @@
         <v>702415</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>14898707.38</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21.2107</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>14898707.38</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1034394.71</v>
@@ -2688,10 +2690,10 @@
         <v>647056</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13207563.32</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20.4118</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13207563.32</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>860342</v>
@@ -2710,10 +2712,10 @@
         <v>646101</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>13299226.92</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>20.5838</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>13299226.92</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>868223.01</v>
@@ -2732,10 +2734,10 @@
         <v>643786</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>12867450.53</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>19.9872</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>12867450.53</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>776647</v>
@@ -2754,10 +2756,10 @@
         <v>663071</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13067449.82</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>19.7075</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13067449.82</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>695766</v>
@@ -2776,10 +2778,10 @@
         <v>633942</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>12951950.51</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>20.4308</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>12951950.51</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>698638.01</v>
@@ -2798,10 +2800,10 @@
         <v>618236</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13116106.21</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>21.2154</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13116106.21</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>662841</v>
@@ -2820,10 +2822,10 @@
         <v>599413</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12306894.33</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20.5316</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>12306894.33</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>631672</v>
@@ -2842,10 +2844,10 @@
         <v>612438</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11624600.93</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>18.9809</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11624600.93</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>624021</v>
@@ -2864,10 +2866,10 @@
         <v>607474</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11840549</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>19.4915</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11840549</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>595505</v>
@@ -2886,10 +2888,10 @@
         <v>615216</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11564733</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>18.7978</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11564733</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>539307</v>
@@ -2908,10 +2910,10 @@
         <v>610161</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>11149832</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>18.2736</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>11149832</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>538867</v>
@@ -2930,10 +2932,10 @@
         <v>593988</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10553629</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>17.7674</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10553629</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>539512</v>
@@ -2952,10 +2954,10 @@
         <v>603878</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10312925</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>17.0778</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10312925</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>488820</v>
@@ -2974,10 +2976,10 @@
         <v>584298</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9754383</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16.6942</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9754383</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>451678</v>
@@ -2996,10 +2998,10 @@
         <v>579159</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9230377</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.9376</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9230377</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>386263</v>
@@ -3018,10 +3020,10 @@
         <v>601198</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8702268</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.4749</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8702268</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>333279</v>
@@ -3040,10 +3042,10 @@
         <v>597235</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8717646</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.5967</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8717646</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>346512</v>
@@ -3062,10 +3064,10 @@
         <v>557140</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9017448</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>16.1852</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9017448</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>361780</v>
@@ -3084,10 +3086,10 @@
         <v>599976</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10830861</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>18.0522</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10830861</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>362002</v>
@@ -3106,10 +3108,10 @@
         <v>576327</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9478609</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>16.4466</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9478609</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>372697</v>
@@ -3128,10 +3130,10 @@
         <v>527520</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8411633</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15.9456</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8411633</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>351235</v>
@@ -3150,10 +3152,10 @@
         <v>509128</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8081680</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15.8736</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8081680</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>258201</v>
@@ -3172,10 +3174,10 @@
         <v>495068</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8041544</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.2433</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8041544</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>226670</v>
@@ -3194,10 +3196,10 @@
         <v>490312</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7187327</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14.6587</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7187327</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>237173</v>
@@ -3216,10 +3218,10 @@
         <v>533463</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6206496</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.6344</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6206496</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>199974</v>
@@ -3238,10 +3240,10 @@
         <v>509939</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5816262</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.4058</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>5816262</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>197940</v>
@@ -3260,10 +3262,10 @@
         <v>461249</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5695759</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12.3486</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5695759</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>220710</v>
@@ -3282,10 +3284,10 @@
         <v>479798</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5704953</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.8903</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5704953</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>187201</v>
@@ -3304,10 +3306,10 @@
         <v>453892</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5447077</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.0008</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5447077</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>160349</v>
@@ -3326,10 +3328,10 @@
         <v>441577</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5236758</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.8592</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5236758</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>133517</v>
@@ -3348,10 +3350,10 @@
         <v>424358</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5055130</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.9124</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5055130</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>106487</v>
@@ -3370,10 +3372,10 @@
         <v>420863</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5024270</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.938</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5024270</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>107480</v>
@@ -3391,10 +3393,10 @@
         <v>411221</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4761061</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11.5779</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4761061</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>121854</v>
@@ -3412,10 +3414,10 @@
         <v>398308</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4476838</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.2396</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4476838</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>116040</v>
@@ -3433,10 +3435,10 @@
         <v>371497</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4127624</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>11.1108</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4127624</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>107244</v>
@@ -3454,10 +3456,10 @@
         <v>368612</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4004916</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10.8649</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4004916</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>96239</v>
@@ -3475,10 +3477,10 @@
         <v>356240</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3852213</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10.8135</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3852213</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>95556</v>
@@ -3496,10 +3498,10 @@
         <v>369318</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3831202</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.3737</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3831202</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>102286</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3898,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3926,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3940,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3980,7 +3982,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3996,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4116,7 +4118,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4229,7 +4231,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4245,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4259,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4273,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4341,7 +4343,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4355,36 +4357,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>301120.1299999999</v>
+        <v>27282.29</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.08336334739219919</v>
+        <v>0.007552942471580107</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>3612140.58</v>
+        <v>273837.8399999999</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.07581040492061908</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>3612140.58</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4406,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
       <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4643,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4657,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4671,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4685,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4699,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4713,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4727,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4741,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4755,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4783,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>781847.5600000005</v>
+        <v>26.48</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2207116759754252</v>
+        <v>7.475172244355736e-06</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>781821.0800000005</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2207042008031809</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>3542393.29</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4829,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="38" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>23550</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3156576.45</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>134.0366</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3156576.45</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0</v>
@@ -5033,10 +5052,10 @@
         <v>24288</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3203775.15</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>131.9074</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3203775.15</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5053,10 +5072,10 @@
         <v>22241</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2886416.84</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>129.7782</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2886416.84</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.01</v>
@@ -5075,10 +5094,10 @@
         <v>18851</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2447243.46</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>129.8186</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2447243.46</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>31.22</v>
@@ -5097,10 +5116,10 @@
         <v>17284</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2196456</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>127.0834</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2196456</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -5119,10 +5138,10 @@
         <v>14741</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1805499</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>122.4845</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1805499</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0</v>
@@ -5141,10 +5160,10 @@
         <v>15500</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1795986</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>115.8701</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1795986</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5161,10 +5180,10 @@
         <v>12000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1396153</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>116.3461</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1396153</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5181,10 +5200,10 @@
         <v>14900</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1729599</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>116.0805</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1729599</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5201,10 +5220,10 @@
         <v>16000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1835491</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>114.7182</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1835491</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0</v>
@@ -5223,10 +5242,10 @@
         <v>16203</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1882806</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>116.2012</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1882806</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5245,10 +5264,10 @@
         <v>16996</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1781899</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>104.8423</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1781899</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>10</v>
@@ -5267,10 +5286,10 @@
         <v>12335</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1540626</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>124.8987</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1540626</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>68</v>
@@ -5289,10 +5308,10 @@
         <v>12141</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1406445</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>115.8426</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1406445</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>84</v>
@@ -5311,10 +5330,10 @@
         <v>12611</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1558196</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>123.5585</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1558196</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>46</v>
@@ -5333,10 +5352,10 @@
         <v>14271</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1433133</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>100.4227</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1433133</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>193</v>
@@ -5355,10 +5374,10 @@
         <v>18957</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1395566</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>73.61750000000001</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1395566</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>189</v>
@@ -5377,10 +5396,10 @@
         <v>21368</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1427781</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>66.81869999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1427781</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>8</v>
@@ -5399,10 +5418,10 @@
         <v>9962</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>925082</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>92.86110000000001</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>925082</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2</v>
@@ -5421,10 +5440,10 @@
         <v>11432</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>709918</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>62.0992</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>709918</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5443,10 +5462,10 @@
         <v>7130</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>677089</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>94.96339999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>677089</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1</v>
@@ -5465,10 +5484,10 @@
         <v>9034</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>555588</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>61.4997</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>555588</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1</v>
@@ -5487,10 +5506,10 @@
         <v>7960</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>494968</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>62.1819</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>494968</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>4</v>
@@ -5509,10 +5528,10 @@
         <v>6994</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>393299</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>56.2338</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>393299</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>16.21</v>
@@ -5531,10 +5550,10 @@
         <v>7173</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>316479</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>44.1209</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>316479</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5553,10 +5572,10 @@
         <v>5243</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>326956</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>62.3605</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>326956</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5575,10 +5594,10 @@
         <v>5608</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>385779</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>68.7908</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>385779</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5597,10 +5616,10 @@
         <v>29586</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>501111</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.9374</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>501111</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2</v>
@@ -5619,10 +5638,10 @@
         <v>50718</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>703300</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13.8669</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>703300</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8</v>
@@ -5641,10 +5660,10 @@
         <v>20131</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>345519</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17.1635</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>345519</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2</v>
@@ -5663,10 +5682,10 @@
         <v>19985</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>459105</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>22.9725</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>459105</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5685,10 +5704,10 @@
         <v>21237</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>376279</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>17.7181</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>376279</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5707,10 +5726,10 @@
         <v>41530</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>375039</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.0306</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>375039</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5729,10 +5748,10 @@
         <v>49028</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>390340</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7.961600000000001</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>390340</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5751,10 +5770,10 @@
         <v>32765</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>215405</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.574199999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>215405</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5773,10 +5792,10 @@
         <v>49374</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>357681</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7.2443</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>357681</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5795,10 +5814,10 @@
         <v>44348</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>347828</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>7.843100000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>347828</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5817,10 +5836,10 @@
         <v>59000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>386000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6.5424</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>386000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5839,10 +5858,10 @@
         <v>42818</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>308762</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7.211</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>308762</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5861,10 +5880,10 @@
         <v>65430</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>474576</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.2532</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>474576</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5883,10 +5902,10 @@
         <v>49025</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>322954</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6.5875</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>322954</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>2</v>
@@ -5905,10 +5924,10 @@
         <v>43668</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>306000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7.0074</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>306000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1</v>
@@ -5927,10 +5946,10 @@
         <v>23000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>182000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.913</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>182000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3</v>
@@ -5949,10 +5968,10 @@
         <v>20816</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>180543</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.673299999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>180543</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1</v>
@@ -5971,10 +5990,10 @@
         <v>40355</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>258712</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>6.4109</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>258712</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1</v>
@@ -5993,10 +6012,10 @@
         <v>26591</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>151000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.6786</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>151000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1</v>
@@ -6015,10 +6034,10 @@
         <v>25178</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>154240</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>6.126</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>154240</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>3</v>
@@ -6037,10 +6056,10 @@
         <v>22400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>112670</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.0299</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>112670</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1</v>
@@ -6059,10 +6078,10 @@
         <v>26000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>119500</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.5962</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>119500</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6081,10 +6100,10 @@
         <v>24100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>121600</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.0456</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>121600</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6103,10 +6122,10 @@
         <v>26000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.8462</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6125,10 +6144,10 @@
         <v>23000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>105000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4.5652</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>105000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6147,10 +6166,10 @@
         <v>23000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>97000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4.2174</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>97000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6169,10 +6188,10 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.8462</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>76000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6191,10 +6210,10 @@
         <v>21000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.714300000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6213,10 +6232,10 @@
         <v>23000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6.5217</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6235,10 +6254,10 @@
         <v>20000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6256,10 +6275,10 @@
         <v>20000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6277,10 +6296,10 @@
         <v>18000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6298,10 +6317,10 @@
         <v>14000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>70000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6319,10 +6338,10 @@
         <v>14000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>70000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6340,10 +6359,10 @@
         <v>10000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6361,10 +6380,10 @@
         <v>10000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6700,7 +6719,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6779,10 +6798,10 @@
         <v>69149</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2944259.54</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>42.5786</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2944259.54</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.13</v>
@@ -6801,10 +6820,10 @@
         <v>67722</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2914424.68</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>43.0351</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2914424.68</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>9.02</v>
@@ -6823,10 +6842,10 @@
         <v>67117</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2860202.36</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>42.615</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2860202.36</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>6.85</v>
@@ -6845,10 +6864,10 @@
         <v>66858</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2702553.81</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>40.4222</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2702553.81</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0</v>
@@ -6867,10 +6886,10 @@
         <v>66048</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2747856.5</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>41.6042</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2747856.5</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -6889,10 +6908,10 @@
         <v>66190</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2730984.64</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>41.2595</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2730984.64</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -6909,10 +6928,10 @@
         <v>65998</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2671710.8</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>40.4819</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2671710.8</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4.06</v>
@@ -6931,10 +6950,10 @@
         <v>65224</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2612474.02</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>40.0536</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2612474.02</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>67.77</v>
@@ -6953,10 +6972,10 @@
         <v>62812</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2582699</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>41.1179</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2582699</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6973,10 +6992,10 @@
         <v>61643</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2507098</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>40.6713</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2507098</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.14</v>
@@ -6995,10 +7014,10 @@
         <v>60759</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2458528</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>40.4636</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2458528</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -7017,10 +7036,10 @@
         <v>58450</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2397745</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41.0222</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2397745</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7039,10 +7058,10 @@
         <v>58457</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2246806</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>38.43519999999999</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2246806</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7061,10 +7080,10 @@
         <v>58547</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2169233</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>37.0511</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2169233</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7083,10 +7102,10 @@
         <v>58823</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2198497</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>37.3748</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2198497</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>7</v>
@@ -7105,10 +7124,10 @@
         <v>58251</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2209336</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>37.9279</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2209336</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7127,10 +7146,10 @@
         <v>53978</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2016462</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>37.3571</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2016462</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7149,10 +7168,10 @@
         <v>49813</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1833907.84</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>36.8158</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1833907.84</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>126</v>
@@ -7171,10 +7190,10 @@
         <v>49215</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1788218</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>36.3348</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1788218</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4</v>
@@ -7193,10 +7212,10 @@
         <v>48238</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1759813</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>36.4819</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1759813</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>3</v>
@@ -7215,10 +7234,10 @@
         <v>47663</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1697952</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>35.6241</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1697952</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7237,10 +7256,10 @@
         <v>44961</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1639161</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>36.4574</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1639161</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7259,10 +7278,10 @@
         <v>44340</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1617906</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>36.4886</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1617906</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -7281,10 +7300,10 @@
         <v>42968</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1559563.08</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>36.2959</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1559563.08</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.67</v>
@@ -7303,10 +7322,10 @@
         <v>43265</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1565878</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>36.19269999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1565878</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1</v>
@@ -7325,10 +7344,10 @@
         <v>42936</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1575145</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>36.6859</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1575145</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1</v>
@@ -7347,10 +7366,10 @@
         <v>42924</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1616113</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>37.6506</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1616113</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1</v>
@@ -7369,10 +7388,10 @@
         <v>42215</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1635744</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>38.7479</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1635744</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7389,10 +7408,10 @@
         <v>41580</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1646268</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>39.5928</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1646268</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7409,10 +7428,10 @@
         <v>40483</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1612327</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>39.8273</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1612327</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7429,10 +7448,10 @@
         <v>39274</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1571811</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>40.0217</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1571811</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7449,10 +7468,10 @@
         <v>38424</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1516685</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>39.4723</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1516685</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7469,10 +7488,10 @@
         <v>38907</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1345599</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>34.585</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1345599</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7489,10 +7508,10 @@
         <v>40795</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1421663</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>34.849</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1421663</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7509,10 +7528,10 @@
         <v>60973</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1178750</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>19.3323</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1178750</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7529,10 +7548,10 @@
         <v>60542</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1181165</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>19.5098</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1181165</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7549,10 +7568,10 @@
         <v>63141</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1303389</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20.6425</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1303389</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7569,10 +7588,10 @@
         <v>60886</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1273176</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>20.9108</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1273176</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7589,10 +7608,10 @@
         <v>58020</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1029952</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>17.7517</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1029952</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7609,10 +7628,10 @@
         <v>59006</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1035584</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>17.5505</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1035584</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7629,10 +7648,10 @@
         <v>61254</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>966962</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15.7861</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>966962</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7649,10 +7668,10 @@
         <v>59181</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1009779</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>17.0626</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1009779</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7669,10 +7688,10 @@
         <v>60568</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>972486</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>16.0561</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>972486</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7689,10 +7708,10 @@
         <v>62670</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1004800</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>16.0332</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1004800</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7709,10 +7728,10 @@
         <v>54550</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>604585</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.0831</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>604585</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7729,10 +7748,10 @@
         <v>45300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>464917</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10.2631</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>464917</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7749,10 +7768,10 @@
         <v>36130</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>421827</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>11.6753</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>421827</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7769,10 +7788,10 @@
         <v>35200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>419872</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.9282</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>419872</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7789,10 +7808,10 @@
         <v>30510</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>424370</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13.9092</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>424370</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7809,10 +7828,10 @@
         <v>28400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>338300</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.912</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>338300</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7829,10 +7848,10 @@
         <v>27600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>293400</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>10.6304</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>293400</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7849,10 +7868,10 @@
         <v>29600</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>282100</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.5304</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>282100</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7869,10 +7888,10 @@
         <v>28000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>234300</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.367899999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>234300</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7889,10 +7908,10 @@
         <v>28850</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>233431</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.091200000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>233431</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7909,10 +7928,10 @@
         <v>29860</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>238362</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7.982699999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>238362</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7929,10 +7948,10 @@
         <v>28670</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>225999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.8828</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>225999</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7949,10 +7968,10 @@
         <v>23260</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>208000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.942399999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>208000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7968,10 +7987,10 @@
         <v>25430</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>188000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7.3928</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>188000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7987,10 +8006,10 @@
         <v>25000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>176000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7.04</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>176000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -8006,10 +8025,10 @@
         <v>22000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.0455</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>155000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -8025,10 +8044,10 @@
         <v>21600</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>151000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.990699999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>151000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -8044,10 +8063,10 @@
         <v>20000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -8063,10 +8082,10 @@
         <v>16600</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.988</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8400,7 +8419,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8479,10 +8498,10 @@
         <v>40000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2937807</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>73.4452</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2937807</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.7</v>
@@ -8501,10 +8520,10 @@
         <v>40000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2618630</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>65.4658</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2618630</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.36</v>
@@ -8523,10 +8542,10 @@
         <v>40000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2938334</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>73.4584</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2938334</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>23.74</v>
@@ -8545,10 +8564,10 @@
         <v>40000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2648138</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>66.20339999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2648138</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>8.84</v>
@@ -8567,10 +8586,10 @@
         <v>40000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2802712</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>70.06780000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2802712</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>7.02</v>
@@ -8589,10 +8608,10 @@
         <v>45000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3418155</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>75.959</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3418155</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>310.08</v>
@@ -8611,10 +8630,10 @@
         <v>45000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3317028</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>73.71169999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3317028</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>14859.65</v>
@@ -8633,10 +8652,10 @@
         <v>43000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2923158</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>67.98039999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2923158</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>18127.85</v>
@@ -8655,10 +8674,10 @@
         <v>40000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2771577</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>69.2894</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2771577</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>16118.85</v>
@@ -8677,10 +8696,10 @@
         <v>40000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2877982</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>71.9496</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2877982</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>16000</v>
@@ -8699,10 +8718,10 @@
         <v>45000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2719760</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>60.4391</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2719760</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>55</v>
@@ -8721,10 +8740,10 @@
         <v>45000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2643889</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>58.7531</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2643889</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>683</v>
@@ -8743,10 +8762,10 @@
         <v>45000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2502228</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>55.6051</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2502228</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>56938</v>
@@ -8765,10 +8784,10 @@
         <v>45000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2312732.8</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>51.3941</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2312732.8</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>46</v>
@@ -8787,10 +8806,10 @@
         <v>40000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1946054</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>48.65130000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1946054</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>53</v>
@@ -8809,10 +8828,10 @@
         <v>33488</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1667530</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>49.7949</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1667530</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>22</v>
@@ -8831,10 +8850,10 @@
         <v>28160</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1547139</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>54.941</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1547139</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>37</v>
@@ -8853,10 +8872,10 @@
         <v>23070</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1980146</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>85.83210000000001</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1980146</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>242</v>
@@ -8875,10 +8894,10 @@
         <v>26821</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1605237</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>59.85</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1605237</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8897,10 +8916,10 @@
         <v>18000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1077300</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>59.85</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1077300</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>15</v>
@@ -8919,10 +8938,10 @@
         <v>16445</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>984233</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>59.85</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>984233</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>95</v>
@@ -8941,10 +8960,10 @@
         <v>15500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>992000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>64</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>992000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>98</v>
@@ -8963,10 +8982,10 @@
         <v>13035</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>950400</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>72.9114</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>950400</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>10</v>
@@ -8985,10 +9004,10 @@
         <v>12500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>903125</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>72.25</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>903125</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>39.22</v>
@@ -9007,10 +9026,10 @@
         <v>9900</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>857969</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>86.6635</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>857969</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>4803.43</v>
@@ -9029,10 +9048,10 @@
         <v>9300</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>651000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>651000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1679</v>
@@ -9051,10 +9070,10 @@
         <v>9170</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>641918</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>70.002</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>641918</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>942</v>
@@ -9073,10 +9092,10 @@
         <v>8195</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>573650</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>573650</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9095,10 +9114,10 @@
         <v>6064</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>424480</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>424480</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9117,10 +9136,10 @@
         <v>7000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>490575.73</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>70.0822</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>490575.73</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9139,10 +9158,10 @@
         <v>7000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>490000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>490000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9161,10 +9180,10 @@
         <v>7000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>490000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>490000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9183,10 +9202,10 @@
         <v>6000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>420000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9205,10 +9224,10 @@
         <v>6050</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>423500</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>423500</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9227,10 +9246,10 @@
         <v>6500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>455000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>70</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>455000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>58</v>
@@ -9249,10 +9268,10 @@
         <v>7040</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>17.0455</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9271,10 +9290,10 @@
         <v>6000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>89100</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14.85</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>89100</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>85</v>
@@ -9293,10 +9312,10 @@
         <v>5500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>71307</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12.9649</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>71307</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>246</v>
@@ -9315,10 +9334,10 @@
         <v>2000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>27257</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>13.6285</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>27257</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>336</v>
@@ -9337,10 +9356,10 @@
         <v>1000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>24204</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>24.204</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>24204</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>272</v>
@@ -9359,10 +9378,10 @@
         <v>625</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>16254</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>26.0064</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>16254</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>120</v>
@@ -9381,10 +9400,10 @@
         <v>530</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18.1132</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>9600</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9403,10 +9422,10 @@
         <v>550</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9425,10 +9444,10 @@
         <v>500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>19</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9500</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9447,10 +9466,10 @@
         <v>490</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>18.3673</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9469,10 +9488,10 @@
         <v>470</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18.7234</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8800</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9491,10 +9510,10 @@
         <v>470</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>18.7234</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8800</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9513,10 +9532,10 @@
         <v>450</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>19.1111</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8600</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9535,10 +9554,10 @@
         <v>420</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8400</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9557,10 +9576,10 @@
         <v>400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8200</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>20.5</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8200</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9579,10 +9598,10 @@
         <v>400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7965</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>19.9125</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7965</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9601,10 +9620,10 @@
         <v>350</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>16.5714</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5800</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9623,10 +9642,10 @@
         <v>350</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5650</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16.1429</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5650</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9645,10 +9664,10 @@
         <v>300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>18</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5400</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9667,10 +9686,10 @@
         <v>300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>17</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5100</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9689,10 +9708,10 @@
         <v>300</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>16.3333</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4900</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9711,10 +9730,10 @@
         <v>300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4600</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>15.3333</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4600</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9732,10 +9751,10 @@
         <v>200</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>22</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4400</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9753,10 +9772,10 @@
         <v>200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>21</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4200</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9774,10 +9793,10 @@
         <v>200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3900</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>19.5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3900</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9795,10 +9814,10 @@
         <v>200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>18.5</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3700</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9816,10 +9835,10 @@
         <v>200</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>18</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3600</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9837,10 +9856,10 @@
         <v>200</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3500</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10176,7 +10195,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10255,10 +10274,10 @@
         <v>63943</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2387393</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>37.3363</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2387393</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>263.31</v>
@@ -10277,10 +10296,10 @@
         <v>64293</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2356788</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>36.657</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2356788</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>22.2</v>
@@ -10299,10 +10318,10 @@
         <v>63610</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2323485</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>36.527</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2323485</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>10</v>
@@ -10321,10 +10340,10 @@
         <v>64792</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2456154</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>37.9083</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2456154</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>7.5</v>
@@ -10343,10 +10362,10 @@
         <v>66900</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2418321</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>36.14830000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2418321</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>17.21</v>
@@ -10365,10 +10384,10 @@
         <v>71659</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2652231</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>37.0118</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2652231</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>101.39</v>
@@ -10387,10 +10406,10 @@
         <v>62078</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2309634</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>37.2054</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2309634</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>75.65000000000001</v>
@@ -10409,10 +10428,10 @@
         <v>66905</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2559117</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>38.25</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2559117</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>174.5</v>
@@ -10431,10 +10450,10 @@
         <v>67922</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2653646</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>39.069</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2653646</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24.79</v>
@@ -10453,10 +10472,10 @@
         <v>66599</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2646243</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>39.734</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2646243</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>15.05</v>
@@ -10475,10 +10494,10 @@
         <v>63204</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2483831</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>39.2986</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2483831</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17</v>
@@ -10497,10 +10516,10 @@
         <v>65502</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2546601</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>38.8782</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2546601</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>22</v>
@@ -10519,10 +10538,10 @@
         <v>62481</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2365455</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>37.8588</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2365455</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>9</v>
@@ -10541,10 +10560,10 @@
         <v>58507</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2205586</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>37.6978</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2205586</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>37</v>
@@ -10563,10 +10582,10 @@
         <v>60176</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2206492</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>36.6673</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2206492</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>14</v>
@@ -10585,10 +10604,10 @@
         <v>65982</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2568547</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>38.928</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2568547</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>8</v>
@@ -10607,10 +10626,10 @@
         <v>71823</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2676323</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>37.26280000000001</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2676323</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1</v>
@@ -10629,10 +10648,10 @@
         <v>66845</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2560632</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>38.307</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2560632</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5</v>
@@ -10651,10 +10670,10 @@
         <v>61787</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2292470</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>37.1028</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2292470</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4</v>
@@ -10673,10 +10692,10 @@
         <v>59163</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2215949</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>37.455</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2215949</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2</v>
@@ -10695,10 +10714,10 @@
         <v>57986</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2160020</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>37.25069999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2160020</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2</v>
@@ -10717,10 +10736,10 @@
         <v>61127</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2149851</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>35.17019999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2149851</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10739,10 +10758,10 @@
         <v>62597</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2145027</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>34.2672</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2145027</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10761,10 +10780,10 @@
         <v>60406</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2003688</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>33.1703</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2003688</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>54.42</v>
@@ -10783,10 +10802,10 @@
         <v>56917</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1870736</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>32.8678</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1870736</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7</v>
@@ -10805,10 +10824,10 @@
         <v>54998</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1669829</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>30.3616</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1669829</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>9</v>
@@ -10827,10 +10846,10 @@
         <v>53567</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1609895</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>30.0539</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1609895</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>51</v>
@@ -10849,10 +10868,10 @@
         <v>45843</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1145981</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>24.9979</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1145981</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>18</v>
@@ -10871,10 +10890,10 @@
         <v>44384</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1426361</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>32.1368</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1426361</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>16</v>
@@ -10893,10 +10912,10 @@
         <v>45218</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1484327</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>32.826</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1484327</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10913,10 +10932,10 @@
         <v>39719</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1251873</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>31.5182</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1251873</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -10933,10 +10952,10 @@
         <v>37402</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1238991</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>33.1263</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1238991</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -10953,10 +10972,10 @@
         <v>35904</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1190307</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>33.1525</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1190307</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -10973,10 +10992,10 @@
         <v>33167</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1103897</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>33.283</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1103897</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -10993,10 +11012,10 @@
         <v>37152</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1241840</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>33.4259</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1241840</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -11013,10 +11032,10 @@
         <v>45390</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1512320</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>33.3184</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1512320</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -11033,10 +11052,10 @@
         <v>44376</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1424260</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>32.0953</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1424260</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -11053,10 +11072,10 @@
         <v>38611</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1240820</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>32.1364</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1240820</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -11073,10 +11092,10 @@
         <v>36618</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1146600</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>31.3125</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1146600</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -11093,10 +11112,10 @@
         <v>32232</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>960347</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>29.7948</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>960347</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -11113,10 +11132,10 @@
         <v>30638</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>831443</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>27.1376</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>831443</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -11133,10 +11152,10 @@
         <v>26513</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>668312</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>25.207</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>668312</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11153,10 +11172,10 @@
         <v>27014</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>619400</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>22.9289</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>619400</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11173,10 +11192,10 @@
         <v>25185</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>565829</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>22.4669</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>565829</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11193,10 +11212,10 @@
         <v>26645</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>580301</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>21.779</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>580301</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11213,10 +11232,10 @@
         <v>26696</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>574530</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>21.5212</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>574530</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11233,10 +11252,10 @@
         <v>26220</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>548403</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20.9154</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>548403</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11253,10 +11272,10 @@
         <v>26180</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>518606</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>19.8092</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>518606</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11273,10 +11292,10 @@
         <v>28000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>527076</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.8241</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>527076</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11293,10 +11312,10 @@
         <v>29498</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>493784</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16.7396</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>493784</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11313,10 +11332,10 @@
         <v>33921</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>488457</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.3998</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>488457</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11333,10 +11352,10 @@
         <v>34474</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>536111</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.5512</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>536111</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11353,10 +11372,10 @@
         <v>33823</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>498849</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>14.7488</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>498849</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11373,10 +11392,10 @@
         <v>32189</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>423903</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13.1692</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>423903</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11393,10 +11412,10 @@
         <v>30636</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>389499</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12.7138</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>389499</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11413,10 +11432,10 @@
         <v>27431</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>337847</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12.3162</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>337847</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11433,10 +11452,10 @@
         <v>30525</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>337487</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.0561</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>337487</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11452,10 +11471,10 @@
         <v>28183</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>295185</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.4739</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>295185</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11471,10 +11490,10 @@
         <v>28467</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>292235</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10.2657</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>292235</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11490,10 +11509,10 @@
         <v>29471</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>290723</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.864700000000001</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>290723</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11509,10 +11528,10 @@
         <v>28472</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>274086</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.6265</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>274086</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11528,10 +11547,10 @@
         <v>26867</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>275954</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10.2711</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>275954</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11547,10 +11566,10 @@
         <v>25345</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>274089</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.8143</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>274089</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11884,7 +11903,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11963,10 +11982,10 @@
         <v>71008</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2093595.55</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>29.4841</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2093595.55</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>213735.02</v>
@@ -11985,10 +12004,10 @@
         <v>69000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2003500</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>29.0362</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2003500</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>208183.63</v>
@@ -12007,10 +12026,10 @@
         <v>67543</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1885900</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>27.9215</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1885900</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>197882.95</v>
@@ -12029,10 +12048,10 @@
         <v>65800</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1847000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>28.0699</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1847000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>208473.1</v>
@@ -12051,10 +12070,10 @@
         <v>87458</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2158691</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>24.6826</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2158691</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>249333.15</v>
@@ -12073,10 +12092,10 @@
         <v>84026</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2057084</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>24.4815</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2057084</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>185995.51</v>
@@ -12095,10 +12114,10 @@
         <v>64344</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1494800</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.2313</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1494800</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>146003.12</v>
@@ -12117,10 +12136,10 @@
         <v>62583</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1399500</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>22.3623</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1399500</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>101931.83</v>
@@ -12139,10 +12158,10 @@
         <v>60500</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1338500</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>22.124</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1338500</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>84400.55</v>
@@ -12161,10 +12180,10 @@
         <v>72617</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1297400</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>17.8663</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1297400</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>70215.86</v>
@@ -12183,10 +12202,10 @@
         <v>60500</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1271700</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.0198</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1271700</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>39458</v>
@@ -12205,10 +12224,10 @@
         <v>65000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1191600</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>18.3323</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1191600</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>28749</v>
@@ -12227,10 +12246,10 @@
         <v>62000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1112900</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>17.95</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1112900</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>37106</v>
@@ -12249,10 +12268,10 @@
         <v>55000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1018400</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>18.5164</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1018400</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>19750</v>
@@ -12271,10 +12290,10 @@
         <v>53900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>999400</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.5417</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>999400</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>12117</v>
@@ -12293,10 +12312,10 @@
         <v>53400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>907200</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>16.9888</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>907200</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10830</v>
@@ -12315,10 +12334,10 @@
         <v>55000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>891700</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>16.2127</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>891700</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>8891</v>
@@ -12337,10 +12356,10 @@
         <v>53200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>890700</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>16.7425</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>890700</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4012</v>
@@ -12359,10 +12378,10 @@
         <v>51500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>848900</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>16.4835</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>848900</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>663</v>
@@ -12381,10 +12400,10 @@
         <v>51000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>808300</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>15.849</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>808300</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>142</v>
@@ -12403,10 +12422,10 @@
         <v>52600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>821900</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>15.6255</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>821900</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>248</v>
@@ -12425,10 +12444,10 @@
         <v>56200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>827300</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14.7206</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>827300</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>671</v>
@@ -12447,10 +12466,10 @@
         <v>60660</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>869000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.3258</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>869000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1370</v>
@@ -12469,10 +12488,10 @@
         <v>45000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>856500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19.0333</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>856500</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1325.58</v>
@@ -12491,10 +12510,10 @@
         <v>40000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>882600</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>22.065</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>882600</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>3497</v>
@@ -12513,10 +12532,10 @@
         <v>30000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>644925</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21.4975</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>644925</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>22492</v>
@@ -12535,10 +12554,10 @@
         <v>30000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>527288</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.5763</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>527288</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>17893</v>
@@ -12557,10 +12576,10 @@
         <v>28000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>20.7143</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2619</v>
@@ -12579,10 +12598,10 @@
         <v>23000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>539408</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>23.4525</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>539408</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1408</v>
@@ -12601,10 +12620,10 @@
         <v>20500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>485019</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>23.6595</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>485019</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>501</v>
@@ -12623,10 +12642,10 @@
         <v>18000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>454748</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>25.2638</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>454748</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>131</v>
@@ -12645,10 +12664,10 @@
         <v>20000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>441682</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>22.0841</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>441682</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>30</v>
@@ -12667,10 +12686,10 @@
         <v>18000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>429222</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>23.8457</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>429222</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>6</v>
@@ -12689,10 +12708,10 @@
         <v>20000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>462549</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>23.1275</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>462549</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12711,10 +12730,10 @@
         <v>22000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>510954</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>23.2252</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>510954</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>3</v>
@@ -12733,10 +12752,10 @@
         <v>20000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>485151</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>24.2575</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>485151</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1</v>
@@ -12755,10 +12774,10 @@
         <v>18000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>412000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>22.8889</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>412000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4</v>
@@ -12777,10 +12796,10 @@
         <v>15000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>23.3333</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>6</v>
@@ -12799,10 +12818,10 @@
         <v>13000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>183157</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14.089</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>183157</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12821,10 +12840,10 @@
         <v>11000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>132000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>132000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12843,10 +12862,10 @@
         <v>11000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.3636</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12865,10 +12884,10 @@
         <v>11000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>134000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>12.1818</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>134000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12887,10 +12906,10 @@
         <v>8700</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>91000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10.4598</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>91000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12909,10 +12928,10 @@
         <v>7500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>75200</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10.0267</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>75200</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12931,10 +12950,10 @@
         <v>7700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>77500</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10.0649</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>77500</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -12953,10 +12972,10 @@
         <v>8000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -12975,10 +12994,10 @@
         <v>7500</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>75000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -12997,10 +13016,10 @@
         <v>8400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.2857</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>78000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13019,10 +13038,10 @@
         <v>7100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.2958</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>66000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13041,10 +13060,10 @@
         <v>6900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.275399999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>64000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13063,10 +13082,10 @@
         <v>6600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.3939</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>62000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13085,10 +13104,10 @@
         <v>6500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.230799999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13107,10 +13126,10 @@
         <v>6400</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.2188</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>59000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13129,10 +13148,10 @@
         <v>6200</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.1935</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>57000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13151,10 +13170,10 @@
         <v>5900</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.321999999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13173,10 +13192,10 @@
         <v>5500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.6364</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>53000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13195,10 +13214,10 @@
         <v>5400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>9.6296</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>52000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13216,10 +13235,10 @@
         <v>5200</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9.615399999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13237,10 +13256,10 @@
         <v>5200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.615399999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13258,10 +13277,10 @@
         <v>5200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.615399999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13279,10 +13298,10 @@
         <v>5000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.6</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>48000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13300,10 +13319,10 @@
         <v>4700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.5745</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>45000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13321,10 +13340,10 @@
         <v>4200</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.5238</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
